--- a/Resuts/results.xlsx
+++ b/Resuts/results.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="106">
   <si>
     <t>Filename</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>Large media</t>
+  </si>
+  <si>
+    <t>PAQ8L -5</t>
   </si>
 </sst>
 </file>
@@ -860,67 +863,7 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1285,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G44" sqref="G42:G44"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1347,6 +1290,9 @@
       <c r="P1" t="s">
         <v>91</v>
       </c>
+      <c r="R1" t="s">
+        <v>105</v>
+      </c>
       <c r="S1" t="s">
         <v>92</v>
       </c>
@@ -1412,6 +1358,9 @@
       <c r="P2">
         <v>13683</v>
       </c>
+      <c r="R2">
+        <v>2972</v>
+      </c>
       <c r="S2">
         <f>MIN(D2:P2)</f>
         <v>7276</v>
@@ -1482,6 +1431,9 @@
       <c r="P3">
         <v>47160</v>
       </c>
+      <c r="R3">
+        <v>35040</v>
+      </c>
       <c r="S3">
         <f t="shared" ref="S3:S66" si="1">MIN(D3:P3)</f>
         <v>47160</v>
@@ -1549,6 +1501,9 @@
       <c r="P4">
         <v>189743</v>
       </c>
+      <c r="R4">
+        <v>138336</v>
+      </c>
       <c r="S4">
         <f t="shared" si="1"/>
         <v>185434</v>
@@ -1619,6 +1574,9 @@
       <c r="P5">
         <v>42388</v>
       </c>
+      <c r="R5">
+        <v>33042</v>
+      </c>
       <c r="S5">
         <f t="shared" si="1"/>
         <v>42388</v>
@@ -1686,6 +1644,9 @@
       <c r="P6">
         <v>5872</v>
       </c>
+      <c r="R6">
+        <v>3602</v>
+      </c>
       <c r="S6">
         <f t="shared" si="1"/>
         <v>5872</v>
@@ -1756,6 +1717,9 @@
       <c r="P7">
         <v>123629</v>
       </c>
+      <c r="R7">
+        <v>87843</v>
+      </c>
       <c r="S7">
         <f t="shared" si="1"/>
         <v>120717</v>
@@ -1811,6 +1775,9 @@
       <c r="P8">
         <v>33020</v>
       </c>
+      <c r="R8">
+        <v>20844</v>
+      </c>
       <c r="S8">
         <f t="shared" si="1"/>
         <v>32062</v>
@@ -1869,6 +1836,9 @@
       <c r="P9">
         <v>1006878</v>
       </c>
+      <c r="R9">
+        <v>636229</v>
+      </c>
       <c r="S9">
         <f t="shared" si="1"/>
         <v>895974</v>
@@ -1924,6 +1894,9 @@
       <c r="P10">
         <v>245237</v>
       </c>
+      <c r="R10">
+        <v>192770</v>
+      </c>
       <c r="S10">
         <f t="shared" si="1"/>
         <v>243407</v>
@@ -1979,6 +1952,9 @@
       <c r="P11">
         <v>183498</v>
       </c>
+      <c r="R11">
+        <v>121839</v>
+      </c>
       <c r="S11">
         <f t="shared" si="1"/>
         <v>178527</v>
@@ -2037,6 +2013,9 @@
       <c r="P12">
         <v>150544</v>
       </c>
+      <c r="R12">
+        <v>104889</v>
+      </c>
       <c r="S12">
         <f t="shared" si="1"/>
         <v>138491</v>
@@ -2095,6 +2074,9 @@
       <c r="P13">
         <v>9026</v>
       </c>
+      <c r="R13">
+        <v>5887</v>
+      </c>
       <c r="S13">
         <f t="shared" si="1"/>
         <v>8592</v>
@@ -2153,6 +2135,9 @@
       <c r="P14">
         <v>1131942</v>
       </c>
+      <c r="R14">
+        <v>1102031</v>
+      </c>
       <c r="S14">
         <f t="shared" si="1"/>
         <v>1129503</v>
@@ -2211,6 +2196,9 @@
       <c r="P15">
         <v>3772</v>
       </c>
+      <c r="R15">
+        <v>2233</v>
+      </c>
       <c r="S15">
         <f t="shared" si="1"/>
         <v>3281</v>
@@ -2269,6 +2257,9 @@
       <c r="P16">
         <v>16730</v>
       </c>
+      <c r="R16">
+        <v>5574</v>
+      </c>
       <c r="S16">
         <f t="shared" si="1"/>
         <v>11267</v>
@@ -2327,6 +2318,9 @@
       <c r="P17">
         <v>90675</v>
       </c>
+      <c r="R17">
+        <v>70736</v>
+      </c>
       <c r="S17">
         <f t="shared" si="1"/>
         <v>90675</v>
@@ -2385,6 +2379,9 @@
       <c r="P18">
         <v>127263</v>
       </c>
+      <c r="R18">
+        <v>96863</v>
+      </c>
       <c r="S18">
         <f t="shared" si="1"/>
         <v>127263</v>
@@ -2440,6 +2437,9 @@
       <c r="P19">
         <v>69814</v>
       </c>
+      <c r="R19">
+        <v>43988</v>
+      </c>
       <c r="S19">
         <f t="shared" si="1"/>
         <v>61322</v>
@@ -2498,6 +2498,9 @@
       <c r="P20">
         <v>78688</v>
       </c>
+      <c r="R20">
+        <v>59534</v>
+      </c>
       <c r="S20">
         <f t="shared" si="1"/>
         <v>78688</v>
@@ -2556,6 +2559,9 @@
       <c r="P21">
         <v>1529</v>
       </c>
+      <c r="R21">
+        <v>963</v>
+      </c>
       <c r="S21">
         <f t="shared" si="1"/>
         <v>1365</v>
@@ -2614,6 +2620,9 @@
       <c r="P22">
         <v>112418</v>
       </c>
+      <c r="R22">
+        <v>79018</v>
+      </c>
       <c r="S22">
         <f t="shared" si="1"/>
         <v>105229</v>
@@ -2672,6 +2681,9 @@
       <c r="P23">
         <v>108928</v>
       </c>
+      <c r="R23">
+        <v>84712</v>
+      </c>
       <c r="S23">
         <f t="shared" si="1"/>
         <v>108928</v>
@@ -2730,6 +2742,9 @@
       <c r="P24">
         <v>161600</v>
       </c>
+      <c r="R24">
+        <v>134347</v>
+      </c>
       <c r="S24">
         <f t="shared" si="1"/>
         <v>151268</v>
@@ -2788,6 +2803,9 @@
       <c r="P25">
         <v>215781</v>
       </c>
+      <c r="R25">
+        <v>11765</v>
+      </c>
       <c r="S25">
         <f t="shared" si="1"/>
         <v>110444</v>
@@ -2846,6 +2864,9 @@
       <c r="P26">
         <v>199269</v>
       </c>
+      <c r="R26">
+        <v>167241</v>
+      </c>
       <c r="S26">
         <f t="shared" si="1"/>
         <v>184480</v>
@@ -2904,6 +2925,9 @@
       <c r="P27">
         <v>122860</v>
       </c>
+      <c r="R27">
+        <v>83912</v>
+      </c>
       <c r="S27">
         <f t="shared" si="1"/>
         <v>120414</v>
@@ -2962,6 +2986,9 @@
       <c r="P28">
         <v>202687</v>
       </c>
+      <c r="R28">
+        <v>110199</v>
+      </c>
       <c r="S28">
         <f t="shared" si="1"/>
         <v>154359</v>
@@ -3020,6 +3047,9 @@
       <c r="P29">
         <v>763654</v>
       </c>
+      <c r="R29">
+        <v>435019</v>
+      </c>
       <c r="S29">
         <f t="shared" si="1"/>
         <v>612163</v>
@@ -3078,6 +3108,9 @@
       <c r="P30">
         <v>61568</v>
       </c>
+      <c r="R30">
+        <v>42522</v>
+      </c>
       <c r="S30">
         <f t="shared" si="1"/>
         <v>50051</v>
@@ -3136,6 +3169,9 @@
       <c r="P31">
         <v>201999</v>
       </c>
+      <c r="R31">
+        <v>143436</v>
+      </c>
       <c r="S31">
         <f t="shared" si="1"/>
         <v>170758</v>
@@ -3194,6 +3230,9 @@
       <c r="P32">
         <v>47259</v>
       </c>
+      <c r="R32">
+        <v>35473</v>
+      </c>
       <c r="S32">
         <f t="shared" si="1"/>
         <v>47259</v>
@@ -3252,6 +3291,9 @@
       <c r="P33">
         <v>216983</v>
       </c>
+      <c r="R33">
+        <v>161301</v>
+      </c>
       <c r="S33">
         <f t="shared" si="1"/>
         <v>183154</v>
@@ -3310,6 +3352,9 @@
       <c r="P34">
         <v>306294</v>
       </c>
+      <c r="R34">
+        <v>238205</v>
+      </c>
       <c r="S34">
         <f t="shared" si="1"/>
         <v>298061</v>
@@ -3368,6 +3413,9 @@
       <c r="P35">
         <v>72911</v>
       </c>
+      <c r="R35">
+        <v>55682</v>
+      </c>
       <c r="S35">
         <f t="shared" si="1"/>
         <v>72911</v>
@@ -3426,6 +3474,9 @@
       <c r="P36">
         <v>1423</v>
       </c>
+      <c r="R36">
+        <v>936</v>
+      </c>
       <c r="S36">
         <f t="shared" si="1"/>
         <v>1252</v>
@@ -3484,6 +3535,9 @@
       <c r="P37">
         <v>1655</v>
       </c>
+      <c r="R37">
+        <v>1138</v>
+      </c>
       <c r="S37">
         <f t="shared" si="1"/>
         <v>1332</v>
@@ -3542,6 +3596,9 @@
       <c r="P38">
         <v>515332</v>
       </c>
+      <c r="R38">
+        <v>370150</v>
+      </c>
       <c r="S38">
         <f t="shared" si="1"/>
         <v>473258</v>
@@ -3600,6 +3657,9 @@
       <c r="P39">
         <v>230557</v>
       </c>
+      <c r="R39">
+        <v>168193</v>
+      </c>
       <c r="S39">
         <f t="shared" si="1"/>
         <v>193840</v>
@@ -3655,6 +3715,9 @@
       <c r="P40">
         <v>135916</v>
       </c>
+      <c r="R40">
+        <v>89859</v>
+      </c>
       <c r="S40">
         <f t="shared" si="1"/>
         <v>135916</v>
@@ -3713,6 +3776,9 @@
       <c r="P41">
         <v>109675</v>
       </c>
+      <c r="R41">
+        <v>80569</v>
+      </c>
       <c r="S41">
         <f t="shared" si="1"/>
         <v>108334</v>
@@ -3768,6 +3834,9 @@
       <c r="P42">
         <v>13147</v>
       </c>
+      <c r="R42">
+        <v>7480</v>
+      </c>
       <c r="S42">
         <f t="shared" si="1"/>
         <v>11553</v>
@@ -3823,6 +3892,9 @@
       <c r="P43">
         <v>98015</v>
       </c>
+      <c r="R43">
+        <v>44914</v>
+      </c>
       <c r="S43">
         <f t="shared" si="1"/>
         <v>86999</v>
@@ -3878,6 +3950,9 @@
       <c r="P44">
         <v>19007</v>
       </c>
+      <c r="R44">
+        <v>13087</v>
+      </c>
       <c r="S44">
         <f t="shared" si="1"/>
         <v>18106</v>
@@ -3933,6 +4008,9 @@
       <c r="P45">
         <v>27761</v>
       </c>
+      <c r="R45">
+        <v>20478</v>
+      </c>
       <c r="S45">
         <f t="shared" si="1"/>
         <v>27761</v>
@@ -3988,6 +4066,9 @@
       <c r="P46">
         <v>17670</v>
       </c>
+      <c r="R46">
+        <v>13033</v>
+      </c>
       <c r="S46">
         <f t="shared" si="1"/>
         <v>17286</v>
@@ -4043,6 +4124,9 @@
       <c r="P47">
         <v>5841</v>
       </c>
+      <c r="R47">
+        <v>4191</v>
+      </c>
       <c r="S47">
         <f t="shared" si="1"/>
         <v>5505</v>
@@ -4098,6 +4182,9 @@
       <c r="P48">
         <v>5532</v>
       </c>
+      <c r="R48">
+        <v>3898</v>
+      </c>
       <c r="S48">
         <f t="shared" si="1"/>
         <v>5066</v>
@@ -4153,6 +4240,9 @@
       <c r="P49">
         <v>14206</v>
       </c>
+      <c r="R49">
+        <v>9502</v>
+      </c>
       <c r="S49">
         <f t="shared" si="1"/>
         <v>13247</v>
@@ -4211,6 +4301,9 @@
       <c r="P50">
         <v>131934</v>
       </c>
+      <c r="R50">
+        <v>97068</v>
+      </c>
       <c r="S50">
         <f t="shared" si="1"/>
         <v>124245</v>
@@ -4269,6 +4362,9 @@
       <c r="P51">
         <v>124933</v>
       </c>
+      <c r="R51">
+        <v>92931</v>
+      </c>
       <c r="S51">
         <f t="shared" si="1"/>
         <v>118320</v>
@@ -4324,6 +4420,9 @@
       <c r="P52">
         <v>56609</v>
       </c>
+      <c r="R52">
+        <v>22533</v>
+      </c>
       <c r="S52">
         <f t="shared" si="1"/>
         <v>54120</v>
@@ -4382,6 +4481,9 @@
       <c r="P53">
         <v>208193</v>
       </c>
+      <c r="R53">
+        <v>161072</v>
+      </c>
       <c r="S53">
         <f t="shared" si="1"/>
         <v>174604</v>
@@ -4440,6 +4542,9 @@
       <c r="P54">
         <v>976707</v>
       </c>
+      <c r="R54">
+        <v>689887</v>
+      </c>
       <c r="S54">
         <f t="shared" si="1"/>
         <v>891588</v>
@@ -4498,6 +4603,9 @@
       <c r="P55">
         <v>151653</v>
       </c>
+      <c r="R55">
+        <v>121942</v>
+      </c>
       <c r="S55">
         <f t="shared" si="1"/>
         <v>151653</v>
@@ -4553,6 +4661,9 @@
       <c r="P56">
         <v>14713</v>
       </c>
+      <c r="R56">
+        <v>9511</v>
+      </c>
       <c r="S56">
         <f t="shared" si="1"/>
         <v>13560</v>
@@ -4608,6 +4719,9 @@
       <c r="P57">
         <v>19755</v>
       </c>
+      <c r="R57">
+        <v>10621</v>
+      </c>
       <c r="S57">
         <f t="shared" si="1"/>
         <v>17335</v>
@@ -4663,6 +4777,9 @@
       <c r="P58">
         <v>13639</v>
       </c>
+      <c r="R58">
+        <v>7128</v>
+      </c>
       <c r="S58">
         <f t="shared" si="1"/>
         <v>11759</v>
@@ -4718,6 +4835,9 @@
       <c r="P59">
         <v>56609</v>
       </c>
+      <c r="R59">
+        <v>22534</v>
+      </c>
       <c r="S59">
         <f t="shared" si="1"/>
         <v>54120</v>
@@ -4776,6 +4896,9 @@
       <c r="P60">
         <v>8681</v>
       </c>
+      <c r="R60">
+        <v>3747</v>
+      </c>
       <c r="S60">
         <f t="shared" si="1"/>
         <v>6777</v>
@@ -4834,6 +4957,9 @@
       <c r="P61">
         <v>88876</v>
       </c>
+      <c r="R61">
+        <v>69319</v>
+      </c>
       <c r="S61">
         <f t="shared" si="1"/>
         <v>88876</v>
@@ -4889,6 +5015,9 @@
       <c r="P62">
         <v>16291</v>
       </c>
+      <c r="R62">
+        <v>7521</v>
+      </c>
       <c r="S62">
         <f t="shared" si="1"/>
         <v>13976</v>
@@ -4944,6 +5073,9 @@
       <c r="P63">
         <v>24639</v>
       </c>
+      <c r="R63">
+        <v>11639</v>
+      </c>
       <c r="S63">
         <f t="shared" si="1"/>
         <v>19355</v>
@@ -5002,6 +5134,9 @@
       <c r="P64">
         <v>226141</v>
       </c>
+      <c r="R64">
+        <v>188157</v>
+      </c>
       <c r="S64">
         <f t="shared" si="1"/>
         <v>207288</v>
@@ -5060,6 +5195,9 @@
       <c r="P65">
         <v>204089</v>
       </c>
+      <c r="R65">
+        <v>150650</v>
+      </c>
       <c r="S65">
         <f t="shared" si="1"/>
         <v>172687</v>
@@ -5118,6 +5256,9 @@
       <c r="P66">
         <v>156989</v>
       </c>
+      <c r="R66">
+        <v>120987</v>
+      </c>
       <c r="S66">
         <f t="shared" si="1"/>
         <v>134440</v>
@@ -5176,6 +5317,9 @@
       <c r="P67">
         <v>674235</v>
       </c>
+      <c r="R67">
+        <v>311528</v>
+      </c>
       <c r="S67">
         <f t="shared" ref="S67:S68" si="3">MIN(D67:P67)</f>
         <v>578178</v>
@@ -5233,6 +5377,9 @@
       </c>
       <c r="P68">
         <v>2034</v>
+      </c>
+      <c r="R68">
+        <v>1414</v>
       </c>
       <c r="S68">
         <f t="shared" si="3"/>
@@ -5260,14 +5407,14 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D60:S68 D38:S58 D2:S15 D17:S36 Q3:Q68">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="S38:S58 S2:S15 S17:S36 Q3:Q68 D17:Q36 D2:Q15 D38:Q58 D60:Q68 S60:S68">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:S37">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="A37:Q37 S37">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:S16">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A16:Q16 S16">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
